--- a/Documentation/V_Cycle Process/1.0 Requirements/AEP CAN database.xlsx
+++ b/Documentation/V_Cycle Process/1.0 Requirements/AEP CAN database.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -252,9 +252,6 @@
     <t>0x601</t>
   </si>
   <si>
-    <t>0x602</t>
-  </si>
-  <si>
     <t>LIGHT_CTRL_MSG</t>
   </si>
   <si>
@@ -301,13 +298,16 @@
   </si>
   <si>
     <t>Gearbox_Status</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,8 +315,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,8 +343,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -338,19 +368,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -397,7 +458,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -429,9 +490,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -463,6 +525,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -638,15 +701,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -664,456 +727,458 @@
     <col min="14" max="14" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="2">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3">
+      <c r="N6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="4">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="F9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="E10" s="4">
+        <v>6</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="O10" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="N6" t="s">
+      <c r="B12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O12" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="D13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O13" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N9" t="s">
-        <v>16</v>
-      </c>
-      <c r="O9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" t="s">
-        <v>67</v>
-      </c>
-      <c r="N10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K11" t="s">
-        <v>86</v>
-      </c>
-      <c r="N11" t="s">
-        <v>16</v>
-      </c>
-      <c r="O11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>91</v>
-      </c>
-      <c r="N12" t="s">
-        <v>16</v>
-      </c>
-      <c r="O12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
         <v>94</v>
-      </c>
-      <c r="N13" t="s">
-        <v>16</v>
-      </c>
-      <c r="O13" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1123,26 +1188,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/V_Cycle Process/1.0 Requirements/AEP CAN database.xlsx
+++ b/Documentation/V_Cycle Process/1.0 Requirements/AEP CAN database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="121">
   <si>
     <t xml:space="preserve">Message </t>
   </si>
@@ -301,13 +301,91 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Signal Name</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>RPM</t>
+  </si>
+  <si>
+    <t>0x602</t>
+  </si>
+  <si>
+    <t>0x00 or 0x01</t>
+  </si>
+  <si>
+    <t>0x00 to 0x2328</t>
+  </si>
+  <si>
+    <t>Range (hex)</t>
+  </si>
+  <si>
+    <t>Range (dec)</t>
+  </si>
+  <si>
+    <t>0 to 9000</t>
+  </si>
+  <si>
+    <t>0 or 1</t>
+  </si>
+  <si>
+    <t>0 or 100</t>
+  </si>
+  <si>
+    <t>Num of Bytes</t>
+  </si>
+  <si>
+    <t>0x00 to 0x64</t>
+  </si>
+  <si>
+    <t>0x01</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>750 Hz</t>
+  </si>
+  <si>
+    <t>0 to 750</t>
+  </si>
+  <si>
+    <t>0 to 1200</t>
+  </si>
+  <si>
+    <t>0x00 to 0x02EE</t>
+  </si>
+  <si>
+    <t>0x00 to 0x04B0</t>
+  </si>
+  <si>
+    <t>Engine RPM</t>
+  </si>
+  <si>
+    <t>0X00 = Engine Off, 0X01 = Engine On</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0X00 = Seat Belt Unblucked, 0X01 = Seat Belt Buckled </t>
+  </si>
+  <si>
+    <t>Duty Cycle in percentage</t>
+  </si>
+  <si>
+    <t>Indicates a 1s period, it is a fixed value</t>
+  </si>
+  <si>
+    <t>1200 ms</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,8 +407,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,6 +444,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -384,20 +481,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="40% - Accent5" xfId="3" builtinId="47"/>
+    <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,26 +840,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O15" sqref="A1:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="1" max="15" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1190,12 +1312,215 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="2">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1203,12 +1528,1330 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:O143"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="53.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="14">
+        <v>2</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="17">
+        <v>2</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="17">
+        <v>2</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="17">
+        <v>1</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="7"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="7"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="7"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="7"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="7"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="7"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="7"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="7"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="7"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="7"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="7"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="7"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="7"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="7"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="7"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="7"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="7"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="7"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="7"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="7"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="7"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="7"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="7"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="7"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="7"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="7"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="7"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/V_Cycle Process/1.0 Requirements/AEP CAN database.xlsx
+++ b/Documentation/V_Cycle Process/1.0 Requirements/AEP CAN database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010" activeTab="1"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="119">
   <si>
     <t xml:space="preserve">Message </t>
   </si>
@@ -258,9 +258,6 @@
     <t>0x05A</t>
   </si>
   <si>
-    <t>LightCmd</t>
-  </si>
-  <si>
     <t>LightCmdNParams</t>
   </si>
   <si>
@@ -288,18 +285,12 @@
     <t>0x302</t>
   </si>
   <si>
-    <t>Ign_Status</t>
-  </si>
-  <si>
     <t>Control_Shift</t>
   </si>
   <si>
     <t>0x307</t>
   </si>
   <si>
-    <t>Gearbox_Status</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -342,43 +333,46 @@
     <t>0x00 to 0x64</t>
   </si>
   <si>
-    <t>0x01</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>750 Hz</t>
-  </si>
-  <si>
-    <t>0 to 750</t>
-  </si>
-  <si>
-    <t>0 to 1200</t>
-  </si>
-  <si>
-    <t>0x00 to 0x02EE</t>
-  </si>
-  <si>
-    <t>0x00 to 0x04B0</t>
-  </si>
-  <si>
     <t>Engine RPM</t>
   </si>
   <si>
-    <t>0X00 = Engine Off, 0X01 = Engine On</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0X00 = Seat Belt Unblucked, 0X01 = Seat Belt Buckled </t>
-  </si>
-  <si>
-    <t>Duty Cycle in percentage</t>
-  </si>
-  <si>
-    <t>Indicates a 1s period, it is a fixed value</t>
-  </si>
-  <si>
-    <t>1200 ms</t>
+    <t>0x00 to 0xFF</t>
+  </si>
+  <si>
+    <t>0 or 255</t>
+  </si>
+  <si>
+    <t>0x78 = 1200 ms, 10 ms each</t>
+  </si>
+  <si>
+    <t>0x00 = Driver Chime Off, 0x01 = Driver Chime On</t>
+  </si>
+  <si>
+    <t>0x00 = Engine Off, 0x01 = Engine On</t>
+  </si>
+  <si>
+    <t>0x00 = Indication On "False", 0x01 = Indication On "True"</t>
+  </si>
+  <si>
+    <t>0x01 = 1.00s Indication Period, 1s each</t>
+  </si>
+  <si>
+    <t>0 to 255</t>
+  </si>
+  <si>
+    <t>0x4B = 750 Hz, 1Hz each</t>
+  </si>
+  <si>
+    <t>0x00 = Passenger Chime Off, 0x01 = Passenger Chime On</t>
+  </si>
+  <si>
+    <t>0xFF = Continuous, 1 repetition each</t>
+  </si>
+  <si>
+    <t>Duty Cycle in percentage, 1% each</t>
   </si>
 </sst>
 </file>
@@ -424,12 +418,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
@@ -454,6 +442,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -483,52 +477,52 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% - Accent5" xfId="3" builtinId="47"/>
@@ -840,13 +834,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O15" sqref="A1:O15"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="15" width="10" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="5" width="10" customWidth="1"/>
+    <col min="6" max="12" width="24" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" customWidth="1"/>
+    <col min="14" max="15" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -896,35 +894,35 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -936,7 +934,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>71</v>
@@ -1006,7 +1004,7 @@
         <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>68</v>
@@ -1035,7 +1033,7 @@
         <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>68</v>
@@ -1050,7 +1048,7 @@
         <v>38</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>16</v>
@@ -1064,7 +1062,7 @@
         <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>35</v>
@@ -1095,7 +1093,7 @@
       <c r="A8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1123,85 +1121,88 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>7</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="4">
+      <c r="D10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="3">
         <v>6</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="O10" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1210,7 +1211,7 @@
         <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>50</v>
@@ -1218,26 +1219,26 @@
       <c r="D11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>6</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>16</v>
@@ -1248,23 +1249,24 @@
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="2">
+        <v>88</v>
+      </c>
+      <c r="E12" s="4">
         <v>1</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="F12" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="4"/>
       <c r="N12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1274,23 +1276,24 @@
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="2">
+        <v>90</v>
+      </c>
+      <c r="E13" s="4">
         <v>1</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="F13" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="4"/>
       <c r="N13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1300,7 +1303,7 @@
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1314,8 +1317,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,7 +1488,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E4" s="2">
         <v>6</v>
@@ -1530,8 +1533,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,1314 +1544,1350 @@
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="53.5703125" customWidth="1"/>
+    <col min="6" max="6" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:15" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="E3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F3" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F5" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="14">
-        <v>2</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="14">
-        <v>1</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="12">
-        <v>1</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="13">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="12">
-        <v>1</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="12">
-        <v>1</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="13">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="17">
-        <v>2</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="17">
-        <v>2</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B13" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C13" s="14">
         <v>1</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="16" t="s">
+      <c r="D13" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="7"/>
-    </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="7"/>
+      <c r="A14" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="7"/>
+      <c r="A15" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="14">
+        <v>1</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
+      <c r="A113" s="6"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
+      <c r="A114" s="6"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="7"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="7"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="7"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="7"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="7"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
+      <c r="A121" s="6"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="7"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="7"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="7"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="7"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
+      <c r="A125" s="6"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="7"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
+      <c r="A126" s="6"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="7"/>
-      <c r="B127" s="7"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="7"/>
-      <c r="B128" s="7"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
+      <c r="A128" s="6"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="7"/>
-      <c r="B129" s="7"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
+      <c r="A129" s="6"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="7"/>
-      <c r="B130" s="7"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="7"/>
-      <c r="B131" s="7"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
+      <c r="A131" s="6"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="7"/>
-      <c r="B132" s="7"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
+      <c r="A132" s="6"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="7"/>
-      <c r="B133" s="7"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="7"/>
+      <c r="A133" s="6"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="7"/>
-      <c r="B134" s="7"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7"/>
+      <c r="A134" s="6"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="7"/>
-      <c r="B135" s="7"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
+      <c r="A135" s="6"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="7"/>
-      <c r="B136" s="7"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="7"/>
+      <c r="A136" s="6"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="7"/>
-      <c r="B137" s="7"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="7"/>
+      <c r="A137" s="6"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="7"/>
-      <c r="B138" s="7"/>
-      <c r="C138" s="7"/>
-      <c r="D138" s="7"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
+      <c r="A138" s="6"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="7"/>
-      <c r="B139" s="7"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7"/>
+      <c r="A139" s="6"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="7"/>
-      <c r="B140" s="7"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
+      <c r="A140" s="6"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="7"/>
-      <c r="B141" s="7"/>
-      <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
+      <c r="A141" s="6"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="7"/>
-      <c r="B142" s="7"/>
-      <c r="C142" s="7"/>
-      <c r="D142" s="7"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7"/>
+      <c r="A142" s="6"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="7"/>
-      <c r="B143" s="7"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
+      <c r="A143" s="6"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/V_Cycle Process/1.0 Requirements/AEP CAN database.xlsx
+++ b/Documentation/V_Cycle Process/1.0 Requirements/AEP CAN database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="118">
   <si>
     <t xml:space="preserve">Message </t>
   </si>
@@ -324,9 +324,6 @@
     <t>0 or 1</t>
   </si>
   <si>
-    <t>0 or 100</t>
-  </si>
-  <si>
     <t>Num of Bytes</t>
   </si>
   <si>
@@ -342,9 +339,6 @@
     <t>0x00 to 0xFF</t>
   </si>
   <si>
-    <t>0 or 255</t>
-  </si>
-  <si>
     <t>0x78 = 1200 ms, 10 ms each</t>
   </si>
   <si>
@@ -363,9 +357,6 @@
     <t>0 to 255</t>
   </si>
   <si>
-    <t>0x4B = 750 Hz, 1Hz each</t>
-  </si>
-  <si>
     <t>0x00 = Passenger Chime Off, 0x01 = Passenger Chime On</t>
   </si>
   <si>
@@ -373,6 +364,12 @@
   </si>
   <si>
     <t>Duty Cycle in percentage, 1% each</t>
+  </si>
+  <si>
+    <t>0 to 100</t>
+  </si>
+  <si>
+    <t>0x4B = 750 Hz, 10Hz each</t>
   </si>
 </sst>
 </file>
@@ -834,8 +831,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,8 +1530,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,7 +1552,7 @@
         <v>93</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>98</v>
@@ -1564,7 +1561,7 @@
         <v>99</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1584,7 +1581,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1604,7 +1601,7 @@
         <v>101</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1624,7 +1621,7 @@
         <v>101</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1638,13 +1635,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1658,13 +1655,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1684,7 +1681,7 @@
         <v>101</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1698,13 +1695,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -1727,13 +1724,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -1756,13 +1753,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1776,13 +1773,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>107</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1796,13 +1793,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1816,13 +1813,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1842,7 +1839,7 @@
         <v>101</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1862,7 +1859,7 @@
         <v>101</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">

--- a/Documentation/V_Cycle Process/1.0 Requirements/AEP CAN database.xlsx
+++ b/Documentation/V_Cycle Process/1.0 Requirements/AEP CAN database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="118">
   <si>
     <t xml:space="preserve">Message </t>
   </si>
@@ -831,8 +831,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,9 +1151,6 @@
       </c>
       <c r="K9" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>16</v>
@@ -1530,8 +1527,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
